--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-482357.4272304066</v>
+        <v>-484338.3438108317</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553592</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13825762.49534463</v>
+        <v>13834211.70025839</v>
       </c>
     </row>
     <row r="11">
@@ -665,10 +665,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>353.7574003600836</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>30.15631195993141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>86.11283245544973</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>26.26583888007722</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>163.0797433831481</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>101.2925131128441</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>144.3968844608073</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>11.31462210444229</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>366.5252000272607</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>354.781782133287</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>80.9734750049406</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.8445683090067</v>
       </c>
       <c r="V13" t="n">
-        <v>104.7343121158679</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890386</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>139.1537278750034</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>31.42554229420313</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>39.18068128098653</v>
+        <v>67.87162017033056</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>41.88171928086684</v>
+        <v>199.8946809864803</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>143.315822205652</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.3429969918143</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.81278504222564</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.412216389655</v>
+        <v>39.79535355857097</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801182</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437389</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348202</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897874</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571455</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
-        <v>13.87840711103702</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952706</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080336</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1316.843694074716</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>2125.745768720171</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X2" t="n">
-        <v>1752.280010459091</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y2" t="n">
-        <v>1721.819089287443</v>
+        <v>1675.109392681467</v>
       </c>
     </row>
     <row r="3">
@@ -4425,13 +4425,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610022</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C4" t="n">
-        <v>438.9553738610022</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D4" t="n">
-        <v>288.8387344486664</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>140.9256408662733</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>140.9256408662733</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>140.9256408662733</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>140.9256408662733</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>701.5978338225178</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>701.5978338225178</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1374.814428194114</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C5" t="n">
-        <v>1374.814428194114</v>
+        <v>1413.148854308789</v>
       </c>
       <c r="D5" t="n">
-        <v>1374.814428194114</v>
+        <v>1054.883155702039</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1054.883155702039</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,13 +4580,13 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4604,13 +4604,13 @@
         <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258236</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1761.414268258236</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>245.4549451025304</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="C7" t="n">
-        <v>245.4549451025304</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="D7" t="n">
-        <v>245.4549451025304</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323009</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>111.0284174698385</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005477</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005477</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X7" t="n">
-        <v>245.4549451025304</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y7" t="n">
-        <v>245.4549451025304</v>
+        <v>280.0282177315061</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1381.388493300343</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>995.6002407020987</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X8" t="n">
-        <v>1986.014999249838</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="Y8" t="n">
-        <v>1595.875667274027</v>
+        <v>1739.654191907093</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>135.7343707142439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>135.7343707142439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>135.7343707142439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>285.8510101265796</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,19 +5057,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5136,7 +5136,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>672.4909068465487</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C13" t="n">
-        <v>503.5547239186418</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>503.5547239186418</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362487</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799346</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471173</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1220.285393478096</v>
       </c>
       <c r="V13" t="n">
-        <v>1082.128922574807</v>
+        <v>965.6009052722088</v>
       </c>
       <c r="W13" t="n">
-        <v>1082.128922574807</v>
+        <v>965.6009052722088</v>
       </c>
       <c r="X13" t="n">
-        <v>854.1393716767884</v>
+        <v>965.6009052722088</v>
       </c>
       <c r="Y13" t="n">
-        <v>854.1393716767884</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,16 +5261,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,10 +5279,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5297,7 +5297,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5364,16 +5364,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1689.561836756086</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2019.424464420119</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2298.964529638816</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2503.987010421026</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.9798268587604</v>
+        <v>237.7764125461479</v>
       </c>
       <c r="C16" t="n">
-        <v>527.0436439308535</v>
+        <v>237.7764125461479</v>
       </c>
       <c r="D16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>1132.312779894887</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>877.6282916890001</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="W16" t="n">
-        <v>877.6282916890001</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="X16" t="n">
-        <v>877.6282916890001</v>
+        <v>237.7764125461479</v>
       </c>
       <c r="Y16" t="n">
-        <v>877.6282916890001</v>
+        <v>237.7764125461479</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5513,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>394.5250474102528</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C19" t="n">
-        <v>394.5250474102528</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D19" t="n">
-        <v>394.5250474102528</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102528</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.063975947119</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1348.264721381358</v>
+        <v>1119.363964944037</v>
       </c>
       <c r="U19" t="n">
-        <v>1348.264721381358</v>
+        <v>830.2353261575954</v>
       </c>
       <c r="V19" t="n">
-        <v>1093.580233175471</v>
+        <v>830.2353261575954</v>
       </c>
       <c r="W19" t="n">
-        <v>804.1630631385099</v>
+        <v>540.8181561206347</v>
       </c>
       <c r="X19" t="n">
-        <v>576.1735122404925</v>
+        <v>540.8181561206347</v>
       </c>
       <c r="Y19" t="n">
-        <v>576.1735122404925</v>
+        <v>540.8181561206347</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>247.6350999123426</v>
+        <v>675.7175987609742</v>
       </c>
       <c r="C22" t="n">
-        <v>247.6350999123426</v>
+        <v>506.7814158330673</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5914,46 +5914,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1456.611503607532</v>
+        <v>1185.927347941465</v>
       </c>
       <c r="U22" t="n">
-        <v>1167.48286482109</v>
+        <v>1185.927347941465</v>
       </c>
       <c r="V22" t="n">
-        <v>1167.48286482109</v>
+        <v>1185.927347941465</v>
       </c>
       <c r="W22" t="n">
-        <v>878.0656947841297</v>
+        <v>896.5101779045043</v>
       </c>
       <c r="X22" t="n">
-        <v>650.0761438861124</v>
+        <v>896.5101779045043</v>
       </c>
       <c r="Y22" t="n">
-        <v>429.2835647425823</v>
+        <v>675.7175987609742</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619849</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6148,22 +6148,22 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557903</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609671</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550802</v>
+        <v>531.3977182706321</v>
       </c>
       <c r="W25" t="n">
-        <v>499.6581354340557</v>
+        <v>241.9805482336717</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>241.9805482336717</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>241.9805482336717</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805466</v>
@@ -6221,31 +6221,31 @@
         <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6288,40 +6288,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256437</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277041</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.6749225845934</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136704</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918914</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.3285960683721</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6382,52 +6382,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471204</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473457</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262963</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.210845262963</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570761</v>
+        <v>835.4163915387938</v>
       </c>
       <c r="W28" t="n">
-        <v>531.1091870201155</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>531.1091870201155</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>531.1091870201155</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6525,40 +6525,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256437</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277041</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341689</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653855</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918007</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136704</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918914</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215229</v>
+        <v>604.5641438163773</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749871</v>
+        <v>491.3888261698411</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440225</v>
+        <v>451.1914993430017</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430005</v>
+        <v>451.1914993430017</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264612</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276529</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569672</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864677</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933511</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667525</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962075</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286027</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353696</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021651</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056079</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056079</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1922.107470014628</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1754.082920085504</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1520.715146580434</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1321.791523655918</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1088.135218900328</v>
+        <v>902.6804289818929</v>
       </c>
       <c r="X31" t="n">
-        <v>915.9065332836819</v>
+        <v>730.4517433652462</v>
       </c>
       <c r="Y31" t="n">
-        <v>750.8748194215229</v>
+        <v>730.4517433652462</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,19 +6780,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,13 +6923,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6938,25 +6938,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,22 +7017,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,13 +7114,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7178,22 +7178,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211722</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>966.693239001134</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,10 +7348,10 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,28 +7394,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506716</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7579,7 +7579,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670534</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208171</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>1108.225203574964</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1559.259416823373</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2092.791321495297</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2639.57013855408</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3483.798167244623</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4197.153254691569</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208804</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587479</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333964</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C46" t="n">
-        <v>668.6846748535628</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893004</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549806</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051435</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G46" t="n">
-        <v>245.8606895279361</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8451091596281</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>439.3376773609111</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618141</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.06529191377</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730927</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135849</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.66178084145</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133948</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949851</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155629</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9012,7 +9012,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.78140656352424</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>96.03744927814574</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627383</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>124.340078086318</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229535</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>104.6241510367942</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504486</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>272.8719470256799</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>285.1031356539335</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476834</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>10.39278408957063</v>
       </c>
       <c r="V13" t="n">
-        <v>147.4033312079601</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9.461745143208967</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>254.8118101043742</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>182.3668797774027</v>
+        <v>153.6759408880587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>179.6658417775224</v>
+        <v>21.65288007190895</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>36.51615797628529</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.18000134477668</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>84.01919513971166</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518767</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533799</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>53.61686283108433</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523532</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>128.8391462440088</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1162500.025101083</v>
+        <v>1162500.025101082</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1162500.025101082</v>
+        <v>1162500.025101083</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1162500.025101082</v>
+        <v>1162500.025101083</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1204395.029014819</v>
+        <v>1219026.318164938</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="D2" t="n">
         <v>246312.5309592849</v>
@@ -26326,13 +26326,13 @@
         <v>234617.4358426252</v>
       </c>
       <c r="G2" t="n">
+        <v>234617.4358426253</v>
+      </c>
+      <c r="H2" t="n">
         <v>234617.4358426251</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>234617.4358426252</v>
-      </c>
-      <c r="I2" t="n">
-        <v>234617.4358426251</v>
       </c>
       <c r="J2" t="n">
         <v>234617.4358426252</v>
@@ -26344,16 +26344,16 @@
         <v>246312.530959285</v>
       </c>
       <c r="M2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="O2" t="n">
         <v>246312.5309592851</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592851</v>
       </c>
     </row>
     <row r="3">
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925937</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284588</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086574</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755743</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26418,7 +26418,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
         <v>174490.7773218262</v>
@@ -26430,34 +26430,34 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649888</v>
+        <v>47468.16806649886</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.33279362279</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.3327936228</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="N4" t="n">
         <v>51722.33279362279</v>
       </c>
       <c r="O4" t="n">
+        <v>51722.33279362282</v>
+      </c>
+      <c r="P4" t="n">
         <v>51722.3327936228</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30134.53761950704</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26485,16 +26485,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022285</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-601005.2036404951</v>
+        <v>-601005.2036404952</v>
       </c>
       <c r="C6" t="n">
-        <v>-11037.32442595073</v>
+        <v>-11037.32442595079</v>
       </c>
       <c r="D6" t="n">
         <v>-11037.32442595076</v>
       </c>
       <c r="E6" t="n">
-        <v>-411833.4721352899</v>
+        <v>-411930.931261262</v>
       </c>
       <c r="F6" t="n">
-        <v>113326.5643416062</v>
+        <v>113229.1052156341</v>
       </c>
       <c r="G6" t="n">
-        <v>113326.5643416062</v>
+        <v>113229.1052156342</v>
       </c>
       <c r="H6" t="n">
-        <v>113326.5643416063</v>
+        <v>113229.1052156339</v>
       </c>
       <c r="I6" t="n">
-        <v>113326.5643416058</v>
+        <v>113229.105215634</v>
       </c>
       <c r="J6" t="n">
-        <v>-63096.65485098738</v>
+        <v>-63194.11397695876</v>
       </c>
       <c r="K6" t="n">
-        <v>55834.30050759416</v>
+        <v>55815.80676966009</v>
       </c>
       <c r="L6" t="n">
-        <v>86532.18554477107</v>
+        <v>86532.18554476993</v>
       </c>
       <c r="M6" t="n">
-        <v>-37925.92288820037</v>
+        <v>-37925.92288820029</v>
       </c>
       <c r="N6" t="n">
+        <v>96875.09234563691</v>
+      </c>
+      <c r="O6" t="n">
         <v>96875.09234563685</v>
       </c>
-      <c r="O6" t="n">
-        <v>96875.09234563709</v>
-      </c>
       <c r="P6" t="n">
-        <v>-85297.10087893614</v>
+        <v>52712.48704279122</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541006</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010833</v>
+        <v>12.92863350108361</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750927</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26978,16 +26978,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-7.675988577927278e-14</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>28.17296971217814</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>356.0816266961222</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>48.85278933688849</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27585,13 +27585,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>185.8797000699417</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>218.8506266891137</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>305.5835326288674</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>2.037078185761914</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>144.8562667373529</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>40.35084571445077</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>14.94931854518205</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>86.33632725411032</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28059,10 +28059,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>56.2595003824851</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.697723443309466e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.455191522836685e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799268</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
@@ -35732,7 +35732,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>120.7944393485983</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341702</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,19 +36522,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951412</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490697</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879397</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594841</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>434.7644551367851</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178385</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315253</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850745</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349123</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490697</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879397</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734205</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415672</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315253</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850745</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412307</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584682</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084863</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075302</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341614</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491606</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403584</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043231</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,7 +37163,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081101</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>437.8187244348071</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>479.9653619572047</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>534.3608406099578</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
